--- a/v0.7/StructureDefinition-Coverage.xlsx
+++ b/v0.7/StructureDefinition-Coverage.xlsx
@@ -1341,14 +1341,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.55859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.6015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
@@ -1365,18 +1365,18 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="139.6484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.51171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.53125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="41.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>

--- a/v0.7/StructureDefinition-Coverage.xlsx
+++ b/v0.7/StructureDefinition-Coverage.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HCXCoverage</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-Coverage.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/StructureDefinition-Coverage.xlsx
+++ b/v0.7/StructureDefinition-Coverage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - HCX</t>
+    <t>HCX Open Community</t>
   </si>
   <si>
     <t>Contact</t>
